--- a/externe dateien/TodoListeProjekt.xlsx
+++ b/externe dateien/TodoListeProjekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\axakurse\persistenceprojekt\externe dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC5AF39-EB87-435C-B0AF-FEDB8A589303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD12444-6144-4A1A-BAF7-3764B2E8F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{26523A63-A4C8-4DF5-880F-14DB076CA917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{26523A63-A4C8-4DF5-880F-14DB076CA917}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A35FA0-9F22-43B6-A1C4-5EE8F4527E57}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -930,7 +930,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>33</v>
       </c>
       <c r="B55" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>35</v>
       </c>
       <c r="B57" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>39</v>
       </c>
       <c r="B61" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -1031,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>44</v>
       </c>
       <c r="B70" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="24" x14ac:dyDescent="0.4">
